--- a/src/data/tienda360_2.xlsx
+++ b/src/data/tienda360_2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PROYECTOS\Node.js\MOCKS\calin_mock\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmatiasm/Documents/MATIAS/PROYECTO-MATIAS/Calin_Repositorio_Mocks/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7591AEEC-6EDF-46DB-AFF8-18D6D828F345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC99640-225E-9740-A695-EC99391368B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{A60726CA-E045-3D44-984C-DD3A0D447AE4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{A60726CA-E045-3D44-984C-DD3A0D447AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="chocolate" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">sublime grande  </t>
+  </si>
+  <si>
+    <t>dsfsd</t>
   </si>
 </sst>
 </file>
@@ -435,12 +438,12 @@
       <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -462,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -473,7 +476,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -484,7 +487,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -495,7 +498,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -506,7 +509,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -524,15 +527,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0102D324-BD5C-42CD-9253-59E0A391999E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -554,7 +557,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -565,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -576,7 +579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -587,7 +590,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -596,6 +599,17 @@
       </c>
       <c r="C6">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
